--- a/能源文献/文献研究/能源论文相关研究.xlsx
+++ b/能源文献/文献研究/能源论文相关研究.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B6D0FF-94FE-42F6-8144-6D2434258DFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444C3E1-F226-4915-BF11-8B7C28DA16EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/能源文献/文献研究/能源论文相关研究.xlsx
+++ b/能源文献/文献研究/能源论文相关研究.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444C3E1-F226-4915-BF11-8B7C28DA16EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207AC8F3-9FA2-459A-90E7-713461A5FDD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="220">
   <si>
     <t>开始年限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -879,6 +879,53 @@
   </si>
   <si>
     <t>基于混合神经模糊推理系统的能耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM Based Short-term Electricity Consumption Forecast with Daily Load Profile Sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期用电量预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Load Forecasting using Deep Learning Approach-LSTM and GRU in Spark Cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRU和LSTM在能源负荷预测的表现，证明gru比lstm好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industrial Power Consumption Forecasting Methods Comparison</t>
+  </si>
+  <si>
+    <t>（上面有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较lstm,ann,rbf-svm, svm,ARIMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM-based Short-term Load Forecasting for Building Electricity Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于LSTM的建筑能耗预测，和mlp,RF,SVM比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="F46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1317,7 +1364,7 @@
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="29.375" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
     <col min="9" max="9" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2046,6 +2093,66 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>154</v>
+      </c>
+      <c r="C59">
+        <v>2016</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59">
+        <v>2018</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" t="s">
+        <v>211</v>
+      </c>
+      <c r="I59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>2018</v>
+      </c>
+      <c r="F60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>2019</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>216</v>
+      </c>
+      <c r="H61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>2019</v>
+      </c>
+      <c r="F62" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
